--- a/Trabajo 2. Modelos explicitos/Datos P1/IV_curves.xlsx
+++ b/Trabajo 2. Modelos explicitos/Datos P1/IV_curves.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CE106B-AB72-4F2A-9383-3730AC3F5D10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6EF103-832E-44B2-B9D2-E114FD5547D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RTC France" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="21">
   <si>
     <t>V</t>
   </si>
@@ -73,6 +73,30 @@
   </si>
   <si>
     <t>alpha</t>
+  </si>
+  <si>
+    <t>RTC</t>
+  </si>
+  <si>
+    <t>TNJ</t>
+  </si>
+  <si>
+    <t>ZTJ</t>
+  </si>
+  <si>
+    <t>3G30C</t>
+  </si>
+  <si>
+    <t>PWP</t>
+  </si>
+  <si>
+    <t>KC200</t>
+  </si>
+  <si>
+    <t>SPV</t>
+  </si>
+  <si>
+    <t>PSC</t>
   </si>
 </sst>
 </file>
@@ -164,7 +188,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -201,7 +225,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -466,7 +490,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="685324672"/>
@@ -528,7 +552,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="685324016"/>
@@ -576,7 +600,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -590,7 +614,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -627,7 +651,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1126,7 +1150,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="734583760"/>
@@ -1188,7 +1212,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="734582776"/>
@@ -1236,7 +1260,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1250,7 +1274,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1287,7 +1311,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1810,7 +1834,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="429589872"/>
@@ -1872,7 +1896,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="430065696"/>
@@ -1920,7 +1944,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1934,7 +1958,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1971,7 +1995,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7996,7 +8020,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="543787680"/>
@@ -8058,7 +8082,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="543786040"/>
@@ -8106,7 +8130,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8120,7 +8144,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8157,7 +8181,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8428,7 +8452,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="736542152"/>
@@ -8490,7 +8514,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="736537888"/>
@@ -8538,7 +8562,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8552,7 +8576,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8589,7 +8613,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9268,7 +9292,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="721388648"/>
@@ -9330,7 +9354,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="721390288"/>
@@ -9378,7 +9402,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9392,7 +9416,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9429,7 +9453,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -16648,7 +16672,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="543295848"/>
@@ -16710,7 +16734,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="543295520"/>
@@ -16758,7 +16782,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16772,7 +16796,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -16809,7 +16833,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -16854,61 +16878,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0395878</c:v>
+                  <c:v>0,0395878</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0798165</c:v>
+                  <c:v>0,0798165</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.120044</c:v>
+                  <c:v>0,120044</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.160281</c:v>
+                  <c:v>0,160281</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.199905</c:v>
+                  <c:v>0,199905</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.240128</c:v>
+                  <c:v>0,240128</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.279745</c:v>
+                  <c:v>0,279745</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.319968</c:v>
+                  <c:v>0,319968</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.3602</c:v>
+                  <c:v>0,3602</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.399817</c:v>
+                  <c:v>0,399817</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.43943</c:v>
+                  <c:v>0,43943</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.479661</c:v>
+                  <c:v>0,479661</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.520493</c:v>
+                  <c:v>0,520493</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.5601</c:v>
+                  <c:v>0,5601</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.600322</c:v>
+                  <c:v>0,600322</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.640522</c:v>
+                  <c:v>0,640522</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.680095</c:v>
+                  <c:v>0,680095</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.71964</c:v>
+                  <c:v>0,71964</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.753649</c:v>
+                  <c:v>0,753649</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -17057,7 +17081,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="735564168"/>
@@ -17119,7 +17143,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="735568432"/>
@@ -17167,7 +17191,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -21955,7 +21979,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -22279,10 +22303,10 @@
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:B43"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
@@ -22540,11 +22564,11 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="N40" sqref="N40:N41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
@@ -23118,7 +23142,7 @@
       <selection activeCell="W40" sqref="W40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.109375" style="3"/>
     <col min="2" max="2" width="14" style="3" bestFit="1" customWidth="1"/>
@@ -23726,7 +23750,7 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.109375" style="3"/>
     <col min="2" max="2" width="14" style="3" bestFit="1" customWidth="1"/>
@@ -31666,11 +31690,11 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.109375" style="3"/>
     <col min="2" max="2" width="14" style="3" bestFit="1" customWidth="1"/>
@@ -31942,7 +31966,7 @@
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.109375" style="3"/>
     <col min="2" max="2" width="14" style="3" bestFit="1" customWidth="1"/>
@@ -32755,10 +32779,10 @@
   <dimension ref="A1:B1202"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L110" sqref="L110"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.109375" style="3"/>
     <col min="2" max="2" width="14" style="3" bestFit="1" customWidth="1"/>
@@ -42290,11 +42314,11 @@
   <sheetPr codeName="Hoja8"/>
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B40"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" bestFit="1" customWidth="1"/>
@@ -42527,14 +42551,40 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="B4:J10"/>
+  <dimension ref="B2:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>2</v>
